--- a/tournament/matches/Punjab_Pakistan_vs_Kolkata_England.xlsx
+++ b/tournament/matches/Punjab_Pakistan_vs_Kolkata_England.xlsx
@@ -523,14 +523,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mohammad Rizwan</t>
+          <t>Jason Roy</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -539,7 +539,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mark Wood</t>
+          <t xml:space="preserve"> Hasan Ali</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -547,23 +547,23 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Jason Roy</t>
+          <t>Mohammad Rizwan</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Haris Rauf</t>
+          <t xml:space="preserve"> Adil Rashid</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -573,11 +573,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Babar Azam(C)</t>
+          <t>Jos Buttler</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -589,7 +589,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chris Jordan</t>
+          <t xml:space="preserve"> Shaheen Afridi</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -597,14 +597,14 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Jos Buttler</t>
+          <t>Babar Azam(C)</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -613,7 +613,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hasan Ali</t>
+          <t xml:space="preserve"> Adil Rashid</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -623,23 +623,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fakhar Zaman</t>
+          <t>Dawid Malan</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mark Wood</t>
+          <t xml:space="preserve"> Imad Wasim</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -647,23 +647,23 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Dawid Malan</t>
+          <t>Fakhar Zaman</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Haris Rauf</t>
+          <t xml:space="preserve"> Chris Jordan</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -673,14 +673,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mohammad Hafeez</t>
+          <t>Jonny Bairstow</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adil Rashid</t>
+          <t xml:space="preserve"> Hasan Ali</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -697,23 +697,23 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Jonny Bairstow</t>
+          <t>Mohammad Hafeez</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shaheen Afridi</t>
+          <t xml:space="preserve"> Liam Livingstone</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -723,14 +723,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Shoaib Malik</t>
+          <t>Eoin Morgan(C)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adil Rashid</t>
+          <t xml:space="preserve"> Shadab Khan</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -747,23 +747,23 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Eoin Morgan(C)</t>
+          <t>Shoaib Malik</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="L6" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>* NOT OUT</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Mark Wood</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -773,23 +773,23 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Asif Ali</t>
+          <t>Moeen Ali</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mark Wood</t>
+          <t xml:space="preserve"> Shaheen Afridi</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -797,23 +797,23 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Moeen Ali</t>
+          <t>Asif Ali</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L7" t="n">
         <v>4</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Chris Jordan</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -823,23 +823,23 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Shadab Khan</t>
+          <t>Liam Livingstone</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chris Woakes</t>
+          <t xml:space="preserve"> Hasan Ali</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -847,23 +847,23 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Liam Livingstone</t>
+          <t>Shadab Khan</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Adil Rashid</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -873,14 +873,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Imad Wasim</t>
+          <t>Chris Woakes</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chris Woakes</t>
+          <t xml:space="preserve"> Hasan Ali</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -897,23 +897,23 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Chris Woakes</t>
+          <t>Imad Wasim</t>
         </is>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Adil Rashid</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -923,14 +923,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Hasan Ali</t>
+          <t>Chris Jordan</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Liam Livingstone</t>
+          <t xml:space="preserve"> Imad Wasim</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -947,18 +947,18 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Chris Jordan</t>
+          <t>Hasan Ali</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -973,23 +973,23 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Shaheen Afridi</t>
+          <t>Adil Rashid</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Liam Livingstone</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -997,18 +997,18 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Adil Rashid</t>
+          <t>Shaheen Afridi</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>* NOT OUT</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1023,7 +1023,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Haris Rauf</t>
+          <t>Mark Wood</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Shadab Khan</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Mark Wood</t>
+          <t>Haris Rauf</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -1114,32 +1114,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="B16" t="n">
         <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>9.4</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="J16" t="n">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1197,201 +1197,201 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Adil Rashid</t>
+          <t>Haris Rauf</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>28</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>14</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Liam Livingstone</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>7</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" t="n">
-        <v>7</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Shaheen Afridi</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="L21" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chris Jordan</t>
+          <t>Shaheen Afridi</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Hasan Ali</t>
+          <t>Mark Wood</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chris Woakes</t>
+          <t>Hasan Ali</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>14.5</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Imad Wasim</t>
+          <t>Adil Rashid</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Liam Livingstone</t>
+          <t>Imad Wasim</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Shadab Khan</t>
+          <t>Chris Jordan</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Mark Wood</t>
+          <t>Shadab Khan</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>20.67</v>
+        <v>16.43</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Haris Rauf</t>
+          <t>Chris Woakes</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>15.45</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/tournament/matches/Punjab_Pakistan_vs_Kolkata_England.xlsx
+++ b/tournament/matches/Punjab_Pakistan_vs_Kolkata_England.xlsx
@@ -523,23 +523,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jason Roy</t>
+          <t>Mohammad Rizwan</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hasan Ali</t>
+          <t xml:space="preserve"> Mark Wood</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -547,23 +547,23 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Mohammad Rizwan</t>
+          <t>Jason Roy</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adil Rashid</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -573,23 +573,23 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jos Buttler</t>
+          <t>Babar Azam(C)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shaheen Afridi</t>
+          <t xml:space="preserve"> Adil Rashid</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -597,23 +597,23 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Babar Azam(C)</t>
+          <t>Jos Buttler</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adil Rashid</t>
+          <t xml:space="preserve"> Shaheen Afridi</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -623,23 +623,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dawid Malan</t>
+          <t>Fakhar Zaman</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Imad Wasim</t>
+          <t xml:space="preserve"> Chris Woakes</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -647,23 +647,23 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Fakhar Zaman</t>
+          <t>Dawid Malan</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chris Jordan</t>
+          <t xml:space="preserve"> Hasan Ali</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -673,7 +673,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jonny Bairstow</t>
+          <t>Mohammad Hafeez</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -689,7 +689,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hasan Ali</t>
+          <t xml:space="preserve"> Adil Rashid</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -697,14 +697,14 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Mohammad Hafeez</t>
+          <t>Jonny Bairstow</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Liam Livingstone</t>
+          <t xml:space="preserve"> Hasan Ali</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -723,23 +723,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Eoin Morgan(C)</t>
+          <t>Shoaib Malik</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shadab Khan</t>
+          <t xml:space="preserve"> Chris Jordan</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -747,23 +747,23 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Shoaib Malik</t>
+          <t>Eoin Morgan(C)</t>
         </is>
       </c>
       <c r="K6" t="n">
         <v>23</v>
       </c>
       <c r="L6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mark Wood</t>
+          <t xml:space="preserve"> Shadab Khan</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -773,23 +773,23 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Moeen Ali</t>
+          <t>Asif Ali</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shaheen Afridi</t>
+          <t xml:space="preserve"> Mark Wood</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -797,23 +797,23 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Asif Ali</t>
+          <t>Moeen Ali</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L7" t="n">
         <v>4</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chris Jordan</t>
+          <t xml:space="preserve"> Haris Rauf</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -823,23 +823,23 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Liam Livingstone</t>
+          <t>Shadab Khan</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hasan Ali</t>
+          <t xml:space="preserve"> Adil Rashid</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -847,23 +847,23 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Shadab Khan</t>
+          <t>Liam Livingstone</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adil Rashid</t>
+          <t xml:space="preserve"> Shaheen Afridi</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -873,23 +873,23 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Chris Woakes</t>
+          <t>Imad Wasim</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hasan Ali</t>
+          <t xml:space="preserve"> Adil Rashid</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -897,23 +897,23 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Imad Wasim</t>
+          <t>Chris Woakes</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>* NOT OUT</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adil Rashid</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -923,23 +923,23 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Chris Jordan</t>
+          <t>Hasan Ali</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Imad Wasim</t>
+          <t xml:space="preserve"> Adil Rashid</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -947,18 +947,18 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Hasan Ali</t>
+          <t>Chris Jordan</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -973,23 +973,23 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Adil Rashid</t>
+          <t>Shaheen Afridi</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Chris Jordan</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -997,18 +997,18 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Shaheen Afridi</t>
+          <t>Adil Rashid</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>* NOT OUT</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1023,23 +1023,23 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mark Wood</t>
+          <t>Haris Rauf</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shadab Khan</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Haris Rauf</t>
+          <t>Mark Wood</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -1114,32 +1114,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="B16" t="n">
         <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>13.5</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="J16" t="n">
-        <v>138</v>
+        <v>215</v>
       </c>
       <c r="K16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>11.5</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
@@ -1197,7 +1197,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Haris Rauf</t>
+          <t>Liam Livingstone</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1206,57 +1206,57 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Liam Livingstone</t>
+          <t>Hasan Ali</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>8</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Shaheen Afridi</t>
+          <t>Mark Wood</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D22" t="n">
         <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>15</v>
+        <v>17.67</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Mark Wood</t>
+          <t>Imad Wasim</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1265,133 +1265,133 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hasan Ali</t>
+          <t>Adil Rashid</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>40</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Shadab Khan</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>29</v>
-      </c>
-      <c r="D23" t="n">
-        <v>4</v>
-      </c>
-      <c r="E23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Adil Rashid</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="L23" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Imad Wasim</t>
+          <t>Chris Jordan</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>13</v>
+        <v>14.67</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Chris Jordan</t>
+          <t>Haris Rauf</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>11.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Shadab Khan</t>
+          <t>Chris Woakes</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Shaheen Afridi</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>42</v>
+      </c>
+      <c r="M25" t="n">
         <v>2</v>
       </c>
-      <c r="E25" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Chris Woakes</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>40</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
       <c r="N25" t="n">
-        <v>20</v>
+        <v>16.8</v>
       </c>
     </row>
   </sheetData>

--- a/tournament/matches/Punjab_Pakistan_vs_Kolkata_England.xlsx
+++ b/tournament/matches/Punjab_Pakistan_vs_Kolkata_England.xlsx
@@ -523,14 +523,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mohammad Rizwan</t>
+          <t>Jason Roy</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -539,7 +539,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mark Wood</t>
+          <t xml:space="preserve"> Haris Rauf</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -547,23 +547,23 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Jason Roy</t>
+          <t>Mohammad Rizwan</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="L2" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Chris Woakes</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -573,23 +573,23 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Babar Azam(C)</t>
+          <t>Jos Buttler</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adil Rashid</t>
+          <t xml:space="preserve"> Hasan Ali</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -597,23 +597,23 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Jos Buttler</t>
+          <t>Babar Azam(C)</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shaheen Afridi</t>
+          <t xml:space="preserve"> Chris Woakes</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -623,23 +623,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fakhar Zaman</t>
+          <t>Dawid Malan</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chris Woakes</t>
+          <t xml:space="preserve"> Haris Rauf</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -647,23 +647,23 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Dawid Malan</t>
+          <t>Fakhar Zaman</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hasan Ali</t>
+          <t xml:space="preserve"> Chris Woakes</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -673,14 +673,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mohammad Hafeez</t>
+          <t>Jonny Bairstow</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adil Rashid</t>
+          <t xml:space="preserve"> Shaheen Afridi</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -697,14 +697,14 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Jonny Bairstow</t>
+          <t>Mohammad Hafeez</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hasan Ali</t>
+          <t xml:space="preserve"> Chris Woakes</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -723,23 +723,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Shoaib Malik</t>
+          <t>Eoin Morgan(C)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chris Jordan</t>
+          <t xml:space="preserve"> Hasan Ali</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -747,14 +747,14 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Eoin Morgan(C)</t>
+          <t>Shoaib Malik</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shadab Khan</t>
+          <t xml:space="preserve"> Mark Wood</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -773,23 +773,23 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Asif Ali</t>
+          <t>Moeen Ali</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mark Wood</t>
+          <t xml:space="preserve"> Haris Rauf</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -797,23 +797,23 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Moeen Ali</t>
+          <t>Asif Ali</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>* NOT OUT</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Haris Rauf</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -823,23 +823,23 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Shadab Khan</t>
+          <t>Liam Livingstone</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adil Rashid</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -847,23 +847,23 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Liam Livingstone</t>
+          <t>Shadab Khan</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="L8" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shaheen Afridi</t>
+          <t xml:space="preserve"> Mark Wood</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -873,14 +873,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Imad Wasim</t>
+          <t>Chris Woakes</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adil Rashid</t>
+          <t xml:space="preserve"> Imad Wasim</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -897,18 +897,18 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Chris Woakes</t>
+          <t>Imad Wasim</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>2</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>* NOT OUT</t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -923,14 +923,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Hasan Ali</t>
+          <t>Chris Jordan</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adil Rashid</t>
+          <t xml:space="preserve"> Shadab Khan</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -947,7 +947,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Chris Jordan</t>
+          <t>Hasan Ali</t>
         </is>
       </c>
       <c r="K10" t="n">
@@ -973,14 +973,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Shaheen Afridi</t>
+          <t>Adil Rashid</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chris Jordan</t>
+          <t xml:space="preserve"> Shaheen Afridi</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -997,7 +997,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Adil Rashid</t>
+          <t>Shaheen Afridi</t>
         </is>
       </c>
       <c r="K11" t="n">
@@ -1023,23 +1023,23 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Haris Rauf</t>
+          <t>Mark Wood</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Shaheen Afridi</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Mark Wood</t>
+          <t>Haris Rauf</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -1114,32 +1114,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="B16" t="n">
         <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13.5</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="J16" t="n">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="K16" t="n">
         <v>6</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20">
@@ -1197,7 +1197,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Liam Livingstone</t>
+          <t>Hasan Ali</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1206,57 +1206,57 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Adil Rashid</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>42</v>
+      </c>
+      <c r="M21" t="n">
         <v>0</v>
       </c>
-      <c r="E21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Hasan Ali</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>41</v>
-      </c>
-      <c r="M21" t="n">
-        <v>2</v>
-      </c>
       <c r="N21" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Mark Wood</t>
+          <t>Imad Wasim</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>17.67</v>
+        <v>18.5</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Imad Wasim</t>
+          <t>Chris Jordan</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1265,38 +1265,38 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Adil Rashid</t>
+          <t>Shadab Khan</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>13.33</v>
+        <v>12</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Shadab Khan</t>
+          <t>Chris Woakes</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1305,19 +1305,19 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N23" t="n">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chris Jordan</t>
+          <t>Haris Rauf</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1326,72 +1326,72 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>14.67</v>
+        <v>13.33</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Haris Rauf</t>
+          <t>Liam Livingstone</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chris Woakes</t>
+          <t>Shaheen Afridi</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>18.4</v>
+        <v>15.45</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Shaheen Afridi</t>
+          <t>Mark Wood</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>16.8</v>
+        <v>16.67</v>
       </c>
     </row>
   </sheetData>
